--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1543302.837391955</v>
+        <v>-1545682.508593982</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>209.0361620222958</v>
       </c>
       <c r="C2" t="n">
-        <v>168.6023610971602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>48.40996735014937</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.769908071584796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>18.90721618830061</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>219.1825554764755</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>99.44420492154111</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.3302879382942</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>277.502254840804</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.6121319064973</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>110.5603751948505</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>232.7865418630446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>212.3530806516339</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8636727978341</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>97.54448884450782</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.73332682041254</v>
+        <v>69.11446803362998</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2290,10 +2290,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>20.18337759832815</v>
+        <v>139.1760394350281</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>87.00571500957156</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>124.5403771939621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>37.99772968344325</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404364</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572899</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633455</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572902</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1362.140678483279</v>
+        <v>983.5361302917797</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>614.5736133513681</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>256.3079147446176</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1362.140678483279</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>2636.818952052699</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2467.882769124792</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>224.6669506791651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>224.6669506791651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>224.6669506791651</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>224.6669506791651</v>
+        <v>2636.818952052699</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>2636.818952052699</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>974.6042763530502</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>304.5083130726407</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>154.391673660305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005476</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005476</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.889273203046</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>912.6235745962956</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>468.3051789791533</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>468.3051789791533</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V10" t="n">
-        <v>468.3051789791533</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W10" t="n">
-        <v>468.3051789791533</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X10" t="n">
-        <v>468.3051789791533</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5045,28 +5045,28 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5075,16 +5075,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5151,7 +5151,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>952.9597618327374</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="W13" t="n">
-        <v>674.1352331045584</v>
+        <v>1577.095838825271</v>
       </c>
       <c r="X13" t="n">
-        <v>446.1456822065411</v>
+        <v>1349.106287927254</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.1456822065411</v>
+        <v>1134.608226662977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,7 +5261,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5273,7 +5273,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5288,40 +5288,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5388,7 +5388,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.7069501484259</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C16" t="n">
-        <v>386.770767220519</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D16" t="n">
-        <v>386.770767220519</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>238.8576736381259</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>238.8576736381259</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>238.8576736381259</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5464,22 +5464,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.554715057174</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.137545020213</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>958.1479941221958</v>
+        <v>611.156654672228</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.3554149786656</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>637.8590697562972</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1088.893283004706</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M17" t="n">
-        <v>1622.425187676631</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.555923688682</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X19" t="n">
-        <v>992.5663727906651</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="Y19" t="n">
-        <v>771.773793647135</v>
+        <v>1190.475192431382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M20" t="n">
-        <v>2006.06516444065</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667297</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996752</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862918</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5862,7 +5862,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>729.2066409118285</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
         <v>410.1538185715858</v>
@@ -5899,13 +5899,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5938,22 +5938,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1432.673259159263</v>
+        <v>1534.245266673878</v>
       </c>
       <c r="V22" t="n">
-        <v>1177.988770953376</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="W22" t="n">
-        <v>1177.988770953376</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X22" t="n">
-        <v>949.9992200553586</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.2066409118285</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,7 +5972,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.468180669545</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3666.440651548882</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4379.795738995828</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6023,16 +6023,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6057,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942216</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663147</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>183.4455950641233</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>183.4455950641233</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W25" t="n">
-        <v>1286.757750222479</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X25" t="n">
-        <v>1058.768199324461</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.768199324461</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6221,7 +6221,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6230,46 +6230,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,31 +6321,31 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6412,22 +6412,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1726.276036796739</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.173169922382</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.173169922382</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.173169922382</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.183619024365</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.3910398808349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>750.1800661608916</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2593.249184644075</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,16 +6558,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6610,13 +6610,13 @@
         <v>364.4578361932532</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
@@ -6677,40 +6677,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N32" t="n">
-        <v>3070.887536710053</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O32" t="n">
         <v>3800.722831322499</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430903</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932532</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160455</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6914,25 +6914,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6941,40 +6941,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N35" t="n">
-        <v>3484.372139114998</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O35" t="n">
-        <v>3987.344609994335</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>187.1890521477366</v>
@@ -7126,7 +7126,7 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
@@ -7138,7 +7138,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7178,16 +7178,16 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>1941.005908766398</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.758180993045</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,52 +7409,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,7 +7491,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320243</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7567,10 +7567,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499225</v>
@@ -7594,7 +7594,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750622</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420602</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,22 +7728,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,31 +7807,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901879</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
         <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>205.0727796301213</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>410.4190035206667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>19.79750571619286</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>229.1155640189929</v>
       </c>
       <c r="M20" t="n">
-        <v>238.2160185885833</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>26.15484791631755</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>139.3563597571384</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,28 +10112,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>39.48321557772579</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>398.2509825792549</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>229.1543674071809</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>89.5245633896194</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,19 +10826,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>17.45080131651048</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>189.7998007892619</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>196.6705306738473</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>333.5204027221124</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.12325558327061</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.81474528051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761701</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>53.73645647354641</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>6.231572700460902</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>2.891342116486641</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.0986533615248</v>
+        <v>110.7175121483073</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>266.0284606072847</v>
+        <v>147.0357987705848</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>79.02009324945666</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>161.9826211426289</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>181.5512195927259</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-7.815970093361102e-13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.904787649315017e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111151.7323348872</v>
+        <v>111151.7323348871</v>
       </c>
       <c r="C2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="D2" t="n">
         <v>123156.2654796425</v>
       </c>
-      <c r="D2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="E2" t="n">
-        <v>119124.5360660949</v>
+        <v>119124.536066095</v>
       </c>
       <c r="F2" t="n">
         <v>119124.536066095</v>
@@ -26332,13 +26332,13 @@
         <v>119124.536066095</v>
       </c>
       <c r="I2" t="n">
-        <v>119124.536066095</v>
+        <v>119124.5360660949</v>
       </c>
       <c r="J2" t="n">
         <v>119124.536066095</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796424</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796423</v>
+        <v>123156.2654796424</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487403</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137670.0716798392</v>
+        <v>137670.0716798393</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="F4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="I4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740894</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-699345.296622906</v>
+        <v>-699545.3721753187</v>
       </c>
       <c r="C6" t="n">
+        <v>-143051.499440895</v>
+      </c>
+      <c r="D6" t="n">
         <v>-143051.4994408949</v>
       </c>
-      <c r="D6" t="n">
-        <v>-143051.499440895</v>
-      </c>
       <c r="E6" t="n">
-        <v>-722784.8885002153</v>
+        <v>-722852.0839904409</v>
       </c>
       <c r="F6" t="n">
-        <v>4592.525493191395</v>
+        <v>4525.330002965574</v>
       </c>
       <c r="G6" t="n">
-        <v>4592.525493191366</v>
+        <v>4525.330002965588</v>
       </c>
       <c r="H6" t="n">
-        <v>4592.525493191395</v>
+        <v>4525.330002965559</v>
       </c>
       <c r="I6" t="n">
-        <v>4592.52549319141</v>
+        <v>4525.330002965574</v>
       </c>
       <c r="J6" t="n">
-        <v>-171830.6936994016</v>
+        <v>-171897.8891896274</v>
       </c>
       <c r="K6" t="n">
-        <v>-48362.16812674285</v>
+        <v>-48362.16812674275</v>
       </c>
       <c r="L6" t="n">
-        <v>-10782.05883186871</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="M6" t="n">
         <v>-140424.3736708136</v>
       </c>
       <c r="N6" t="n">
-        <v>-10782.05883186864</v>
+        <v>-10782.05883186868</v>
       </c>
       <c r="O6" t="n">
-        <v>-10782.05883186875</v>
+        <v>-10782.05883186868</v>
       </c>
       <c r="P6" t="n">
-        <v>-48362.16812674273</v>
+        <v>-48362.16812674276</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859252</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859257</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>173.6976796411848</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>129.4922174349418</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>165.9828178131689</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>363.82662547518</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,13 +27664,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>167.0553831795781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>46.98975772502806</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.80735538553375</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.4281152314578</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.625806749556318</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>114.4747302632338</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>284.3433210255657</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138783</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1257805183404</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>962.7208389335782</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>356.9887922715934</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
@@ -35905,7 +35905,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>684.705678411325</v>
       </c>
       <c r="M20" t="n">
-        <v>777.1371344188101</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>276.949152720037</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,13 +36607,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>647.4093606453575</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36832,28 +36832,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>470.444344195426</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906373</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>937.1720984094817</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>737.2073682954</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37309,22 +37309,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502544</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>488.2865496089913</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37546,19 +37546,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>556.3719171467372</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>648.4398196822187</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>742.1016362021736</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340041</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
